--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_AIDEV_HieuVM.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_AIDEV_HieuVM.xlsx
@@ -266,13 +266,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +603,10 @@
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>43</v>
       </c>
@@ -1012,14 +1012,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -1117,14 +1117,14 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
@@ -1138,12 +1138,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A36:F36"/>
@@ -1151,6 +1145,12 @@
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
